--- a/journals.xlsx
+++ b/journals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Documents\R Workspace\ns_gender_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{226F25BA-D281-42EF-AC05-E7E9A47E4342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14D53BD-F738-4889-8832-2C27733E7F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="journals" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>common_name</t>
   </si>
@@ -128,12 +128,27 @@
   </si>
   <si>
     <t>J Neurol Surg B Skull Base</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>nsurg</t>
+  </si>
+  <si>
+    <t>neuro</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>gen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -968,11 +983,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,175 +996,239 @@
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/journals.xlsx
+++ b/journals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Documents\R Workspace\ns_gender_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14D53BD-F738-4889-8832-2C27733E7F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C61204F-2FD0-47B4-B5B7-BC6EE2D3FD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="journals" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>common_name</t>
   </si>
@@ -143,6 +143,30 @@
   </si>
   <si>
     <t>gen</t>
+  </si>
+  <si>
+    <t>The New England journal of medicine</t>
+  </si>
+  <si>
+    <t>N Engl J Med</t>
+  </si>
+  <si>
+    <t>Nature medicine</t>
+  </si>
+  <si>
+    <t>Nat Med</t>
+  </si>
+  <si>
+    <t>Sci Transl Med</t>
+  </si>
+  <si>
+    <t>Science translational medicine</t>
+  </si>
+  <si>
+    <t>JAMA surgery</t>
+  </si>
+  <si>
+    <t>JAMA Surg</t>
   </si>
 </sst>
 </file>
@@ -688,9 +712,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -728,7 +752,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -834,7 +858,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -976,7 +1000,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -984,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1251,50 @@
         <v>37</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
